--- a/307_dateNaissance_Desc/ig/all-profiles.xlsx
+++ b/307_dateNaissance_Desc/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:41:46+00:00</t>
+    <t>2025-01-13T15:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
